--- a/atracacao.xlsx
+++ b/atracacao.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emapmagovbr-my.sharepoint.com/personal/wesley_santos_emap_ma_gov_br/Documents/Área de Trabalho/projetos_python/agent_port/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\curso_pyton\agent_port\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{98E4C9F7-0993-4E0D-AFEA-8366F0ED1FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21745569-2307-4DB6-8CE1-FD389FE1DE4D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="atracacao" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">atracacao!$A$1:$J$653</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1493,15 +1492,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
-    <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
@@ -1530,18 +1522,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1878,27 +1867,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K653"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J653"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.75" customWidth="1"/>
-    <col min="3" max="3" width="15.625" customWidth="1"/>
-    <col min="5" max="5" width="28.75" customWidth="1"/>
+    <col min="1" max="1" width="22.69921875" customWidth="1"/>
+    <col min="3" max="3" width="15.59765625" customWidth="1"/>
+    <col min="5" max="5" width="28.69921875" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.875" customWidth="1"/>
-    <col min="9" max="9" width="19.625" customWidth="1"/>
+    <col min="7" max="7" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.8984375" customWidth="1"/>
+    <col min="9" max="9" width="19.59765625" customWidth="1"/>
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.75" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1930,7 +1918,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>135031010628</v>
       </c>
@@ -1961,12 +1949,8 @@
       <c r="J2">
         <v>58749.350000000006</v>
       </c>
-      <c r="K2" s="2">
-        <f>SUM(J2:J653)</f>
-        <v>22976277.581999984</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>135334010642</v>
       </c>
@@ -1998,7 +1982,7 @@
         <v>28060.44</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>135356010647</v>
       </c>
@@ -2030,7 +2014,7 @@
         <v>33129.29</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>135333210641</v>
       </c>
@@ -2062,7 +2046,7 @@
         <v>59000</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>135005710627</v>
       </c>
@@ -2094,7 +2078,7 @@
         <v>31506.66</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>135356610648</v>
       </c>
@@ -2126,7 +2110,7 @@
         <v>32700</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>135355410646</v>
       </c>
@@ -2158,7 +2142,7 @@
         <v>30725.044000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>133228110572</v>
       </c>
@@ -2190,7 +2174,7 @@
         <v>72511.092000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>135342210643</v>
       </c>
@@ -2206,23 +2190,23 @@
       <c r="E10" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>45292.216666666667</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <v>45292.466666666667</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="2">
         <v>45294.691666666666</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="2">
         <v>45294.948611111111</v>
       </c>
       <c r="J10">
         <v>37016.841</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>135615810656</v>
       </c>
@@ -2238,23 +2222,23 @@
       <c r="E11" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>45292.25</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <v>45292.5</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="2">
         <v>45293.158333333333</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="2">
         <v>45293.428472222222</v>
       </c>
       <c r="J11">
         <v>4947.9260000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>135447410653</v>
       </c>
@@ -2270,23 +2254,23 @@
       <c r="E12" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>45293.748611111114</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="2">
         <v>45293.904166666667</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="2">
         <v>45294.691666666666</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="2">
         <v>45294.966666666667</v>
       </c>
       <c r="J12">
         <v>11053.687</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>135105710632</v>
       </c>
@@ -2318,7 +2302,7 @@
         <v>14293.26</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>135687310659</v>
       </c>
@@ -2350,7 +2334,7 @@
         <v>20675.603000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>135056410629</v>
       </c>
@@ -2382,7 +2366,7 @@
         <v>12115.132</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>135447310652</v>
       </c>
@@ -2414,7 +2398,7 @@
         <v>3413.6479999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>135274810661</v>
       </c>
@@ -2446,7 +2430,7 @@
         <v>12524.948</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>134939410620</v>
       </c>
@@ -2478,7 +2462,7 @@
         <v>75571.202999999994</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>133067110564</v>
       </c>
@@ -2510,7 +2494,7 @@
         <v>40095.599999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>135446210651</v>
       </c>
@@ -2542,7 +2526,7 @@
         <v>31580.601999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>135616010657</v>
       </c>
@@ -2574,7 +2558,7 @@
         <v>15858.49</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>136042610681</v>
       </c>
@@ -2606,7 +2590,7 @@
         <v>11404.741</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>135682710658</v>
       </c>
@@ -2638,7 +2622,7 @@
         <v>41334.423999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>135871810677</v>
       </c>
@@ -2670,7 +2654,7 @@
         <v>23554.863000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>136260510691</v>
       </c>
@@ -2702,7 +2686,7 @@
         <v>3259.846</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>135944910679</v>
       </c>
@@ -2734,7 +2718,7 @@
         <v>3822.3319999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>135355410687</v>
       </c>
@@ -2766,7 +2750,7 @@
         <v>26014.557000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>135280810638</v>
       </c>
@@ -2798,7 +2782,7 @@
         <v>5889.299</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>135280810712</v>
       </c>
@@ -2830,7 +2814,7 @@
         <v>60017.179000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>135944910711</v>
       </c>
@@ -2862,7 +2846,7 @@
         <v>12511.966</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>135450010655</v>
       </c>
@@ -2894,7 +2878,7 @@
         <v>4911.1899999999996</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>136498310695</v>
       </c>
@@ -2926,7 +2910,7 @@
         <v>10840</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>136112410683</v>
       </c>
@@ -2958,7 +2942,7 @@
         <v>13820.64</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>135853910665</v>
       </c>
@@ -2990,7 +2974,7 @@
         <v>14368.831</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>134393210606</v>
       </c>
@@ -3022,7 +3006,7 @@
         <v>14858.82</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>135356510649</v>
       </c>
@@ -3054,7 +3038,7 @@
         <v>10214.61</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>136493810694</v>
       </c>
@@ -3086,7 +3070,7 @@
         <v>41257.432000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>136370810693</v>
       </c>
@@ -3118,7 +3102,7 @@
         <v>42700</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>134393210724</v>
       </c>
@@ -3150,7 +3134,7 @@
         <v>37271.47</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>136731910706</v>
       </c>
@@ -3182,7 +3166,7 @@
         <v>3011.3780000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>135838510664</v>
       </c>
@@ -3214,7 +3198,7 @@
         <v>10708.407999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>135872310678</v>
       </c>
@@ -3246,7 +3230,7 @@
         <v>32785.794999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>136130610686</v>
       </c>
@@ -3278,7 +3262,7 @@
         <v>13657.297</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>136119610684</v>
       </c>
@@ -3310,7 +3294,7 @@
         <v>18062.580000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>136050710685</v>
       </c>
@@ -3342,7 +3326,7 @@
         <v>8152.6260000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>136736710707</v>
       </c>
@@ -3374,7 +3358,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>137259810728</v>
       </c>
@@ -3406,7 +3390,7 @@
         <v>16503.98</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>137300310729</v>
       </c>
@@ -3438,7 +3422,7 @@
         <v>3386.6459999999997</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>135822110663</v>
       </c>
@@ -3470,7 +3454,7 @@
         <v>37974.664999999994</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>136672110702</v>
       </c>
@@ -3502,7 +3486,7 @@
         <v>14261.584999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>135856010666</v>
       </c>
@@ -3534,7 +3518,7 @@
         <v>8251.6790000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>131373210517</v>
       </c>
@@ -3566,7 +3550,7 @@
         <v>29950.097000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>136667010701</v>
       </c>
@@ -3598,7 +3582,7 @@
         <v>4911.7489999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>136841810716</v>
       </c>
@@ -3630,7 +3614,7 @@
         <v>7034.4250000000002</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>135689410660</v>
       </c>
@@ -3662,7 +3646,7 @@
         <v>16422.235000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>134325210601</v>
       </c>
@@ -3694,7 +3678,7 @@
         <v>9783.92</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>136240910688</v>
       </c>
@@ -3726,7 +3710,7 @@
         <v>24274.150999999998</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>136656010699</v>
       </c>
@@ -3758,7 +3742,7 @@
         <v>22152.36</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>136241710689</v>
       </c>
@@ -3790,7 +3774,7 @@
         <v>22510</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>135789110662</v>
       </c>
@@ -3822,7 +3806,7 @@
         <v>26471.105</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>136265210692</v>
       </c>
@@ -3854,7 +3838,7 @@
         <v>60970.664999999994</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>137307810730</v>
       </c>
@@ -3886,7 +3870,7 @@
         <v>17990</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>137216310725</v>
       </c>
@@ -3918,7 +3902,7 @@
         <v>11955.64</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>136797810709</v>
       </c>
@@ -3950,7 +3934,7 @@
         <v>17902.36</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>136841810745</v>
       </c>
@@ -3982,7 +3966,7 @@
         <v>15199.891</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>137403710732</v>
       </c>
@@ -4014,7 +3998,7 @@
         <v>31482.823</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>137471110735</v>
       </c>
@@ -4046,7 +4030,7 @@
         <v>3202.7240000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>137695610746</v>
       </c>
@@ -4078,7 +4062,7 @@
         <v>29574</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>137094110720</v>
       </c>
@@ -4110,7 +4094,7 @@
         <v>13898.07</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>136242810690</v>
       </c>
@@ -4142,7 +4126,7 @@
         <v>24051.006000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>137787510747</v>
       </c>
@@ -4174,7 +4158,7 @@
         <v>43000</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>137227310727</v>
       </c>
@@ -4206,7 +4190,7 @@
         <v>14913.338</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>137765010748</v>
       </c>
@@ -4238,7 +4222,7 @@
         <v>10747.904</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>137060310718</v>
       </c>
@@ -4270,7 +4254,7 @@
         <v>12154.064</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>137698010744</v>
       </c>
@@ -4302,7 +4286,7 @@
         <v>19049.525000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>137471010734</v>
       </c>
@@ -4334,7 +4318,7 @@
         <v>34353.336000000003</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>136662810700</v>
       </c>
@@ -4366,7 +4350,7 @@
         <v>25316.48</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>136713210703</v>
       </c>
@@ -4398,7 +4382,7 @@
         <v>10549.011</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>138350010755</v>
       </c>
@@ -4430,7 +4414,7 @@
         <v>4746.8779999999997</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>138365010756</v>
       </c>
@@ -4462,7 +4446,7 @@
         <v>3278.069</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>137696510743</v>
       </c>
@@ -4494,7 +4478,7 @@
         <v>71500</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>137488110739</v>
       </c>
@@ -4526,7 +4510,7 @@
         <v>8264.5349999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>136843110715</v>
       </c>
@@ -4558,7 +4542,7 @@
         <v>31509.562999999998</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>137476710737</v>
       </c>
@@ -4590,7 +4574,7 @@
         <v>6004.6220000000003</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>137100910721</v>
       </c>
@@ -4622,7 +4606,7 @@
         <v>36046.65</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>137318810731</v>
       </c>
@@ -4654,7 +4638,7 @@
         <v>27200</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>137954910753</v>
       </c>
@@ -4686,7 +4670,7 @@
         <v>11967.683999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>138423310758</v>
       </c>
@@ -4718,7 +4702,7 @@
         <v>33130.697999999997</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>138547210764</v>
       </c>
@@ -4750,7 +4734,7 @@
         <v>37224.258000000002</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>136018210682</v>
       </c>
@@ -4782,7 +4766,7 @@
         <v>49513.200000000004</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>137092710719</v>
       </c>
@@ -4814,7 +4798,7 @@
         <v>6479.2820000000002</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>137471410736</v>
       </c>
@@ -4846,7 +4830,7 @@
         <v>18613.77</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>138614410768</v>
       </c>
@@ -4878,7 +4862,7 @@
         <v>40019.777000000002</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>138672910771</v>
       </c>
@@ -4910,7 +4894,7 @@
         <v>3347.5450000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>137657010742</v>
       </c>
@@ -4942,7 +4926,7 @@
         <v>14932.946</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>138559510766</v>
       </c>
@@ -4974,7 +4958,7 @@
         <v>4432.07</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>138696610776</v>
       </c>
@@ -5006,7 +4990,7 @@
         <v>54300</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>137902910752</v>
       </c>
@@ -5038,7 +5022,7 @@
         <v>70919.861000000004</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>138617410769</v>
       </c>
@@ -5070,7 +5054,7 @@
         <v>20753.784</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>137219310726</v>
       </c>
@@ -5102,7 +5086,7 @@
         <v>11453.08</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>138673510772</v>
       </c>
@@ -5134,7 +5118,7 @@
         <v>5748.5259999999998</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>138440510760</v>
       </c>
@@ -5166,7 +5150,7 @@
         <v>23270.411</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>138556910765</v>
       </c>
@@ -5198,7 +5182,7 @@
         <v>70399.688999999998</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>136775910708</v>
       </c>
@@ -5230,7 +5214,7 @@
         <v>67984.675000000003</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>138617710770</v>
       </c>
@@ -5262,7 +5246,7 @@
         <v>13007.07</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>138882110780</v>
       </c>
@@ -5294,7 +5278,7 @@
         <v>3279.7330000000002</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>136717710705</v>
       </c>
@@ -5326,7 +5310,7 @@
         <v>20077.41</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>138500110761</v>
       </c>
@@ -5358,7 +5342,7 @@
         <v>11062.23</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>138967710786</v>
       </c>
@@ -5390,7 +5374,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>133241710576</v>
       </c>
@@ -5422,7 +5406,7 @@
         <v>70764.982000000004</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>137172210723</v>
       </c>
@@ -5454,7 +5438,7 @@
         <v>21808.15</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>137880010750</v>
       </c>
@@ -5486,7 +5470,7 @@
         <v>69053.11</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>138882010779</v>
       </c>
@@ -5518,7 +5502,7 @@
         <v>18826.181</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>138430510759</v>
       </c>
@@ -5550,7 +5534,7 @@
         <v>47856</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>137883810751</v>
       </c>
@@ -5582,7 +5566,7 @@
         <v>69312.983999999997</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>137590610741</v>
       </c>
@@ -5614,7 +5598,7 @@
         <v>22700</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>138967710797</v>
       </c>
@@ -5646,7 +5630,7 @@
         <v>16766</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>138882510782</v>
       </c>
@@ -5678,7 +5662,7 @@
         <v>27071.148999999998</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>138383810757</v>
       </c>
@@ -5710,7 +5694,7 @@
         <v>84814.038</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>138882210781</v>
       </c>
@@ -5742,7 +5726,7 @@
         <v>16465.53</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>138053610754</v>
       </c>
@@ -5774,7 +5758,7 @@
         <v>68543</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>138559910767</v>
       </c>
@@ -5806,7 +5790,7 @@
         <v>34494.120000000003</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>139182810790</v>
       </c>
@@ -5838,7 +5822,7 @@
         <v>3374.5340000000001</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>139312610798</v>
       </c>
@@ -5870,7 +5854,7 @@
         <v>20738.275000000001</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>139181910789</v>
       </c>
@@ -5902,7 +5886,7 @@
         <v>30562.19</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>138696510775</v>
       </c>
@@ -5934,7 +5918,7 @@
         <v>70479.051000000007</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>139264010795</v>
       </c>
@@ -5966,7 +5950,7 @@
         <v>3995.712</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>138857610777</v>
       </c>
@@ -5998,7 +5982,7 @@
         <v>12615.147000000001</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>138884310783</v>
       </c>
@@ -6030,7 +6014,7 @@
         <v>54041</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>139578010820</v>
       </c>
@@ -6062,7 +6046,7 @@
         <v>23601.477999999999</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>139863710837</v>
       </c>
@@ -6094,7 +6078,7 @@
         <v>35388.285000000003</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>138694110774</v>
       </c>
@@ -6126,7 +6110,7 @@
         <v>16170.02</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>137807110749</v>
       </c>
@@ -6158,7 +6142,7 @@
         <v>68433</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>139235010792</v>
       </c>
@@ -6190,7 +6174,7 @@
         <v>21727.550999999999</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>139762510834</v>
       </c>
@@ -6222,7 +6206,7 @@
         <v>3538.0949999999998</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>139176710788</v>
       </c>
@@ -6254,7 +6238,7 @@
         <v>16527.902999999998</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>139577410818</v>
       </c>
@@ -6286,7 +6270,7 @@
         <v>8302.1280000000006</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>138694110855</v>
       </c>
@@ -6318,7 +6302,7 @@
         <v>13845.17</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>139515010817</v>
       </c>
@@ -6350,7 +6334,7 @@
         <v>67844</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139513810822</v>
       </c>
@@ -6382,7 +6366,7 @@
         <v>50040</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>138952810785</v>
       </c>
@@ -6414,7 +6398,7 @@
         <v>68718.873999999996</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>139004810787</v>
       </c>
@@ -6446,7 +6430,7 @@
         <v>70314.320000000007</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>140307010847</v>
       </c>
@@ -6478,7 +6462,7 @@
         <v>2325.1</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>138383810840</v>
       </c>
@@ -6510,7 +6494,7 @@
         <v>18167.37</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>139625310823</v>
       </c>
@@ -6542,7 +6526,7 @@
         <v>34842.732000000004</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>140189710841</v>
       </c>
@@ -6574,7 +6558,7 @@
         <v>24862.235000000001</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>138872110778</v>
       </c>
@@ -6606,7 +6590,7 @@
         <v>69300.437999999995</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>139345910800</v>
       </c>
@@ -6638,7 +6622,7 @@
         <v>65756.066999999995</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>140191310842</v>
       </c>
@@ -6670,7 +6654,7 @@
         <v>18248.846000000001</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>140307010859</v>
       </c>
@@ -6702,7 +6686,7 @@
         <v>961.51499999999999</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>139346010801</v>
       </c>
@@ -6734,7 +6718,7 @@
         <v>70035.072</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>139227510791</v>
       </c>
@@ -6766,7 +6750,7 @@
         <v>64095.802000000003</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>140307510848</v>
       </c>
@@ -6798,7 +6782,7 @@
         <v>18331.993999999999</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>140307610849</v>
       </c>
@@ -6830,7 +6814,7 @@
         <v>4971.6549999999997</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>139760510832</v>
       </c>
@@ -6862,7 +6846,7 @@
         <v>70400</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>139645810825</v>
       </c>
@@ -6894,7 +6878,7 @@
         <v>101768.372</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>138692510773</v>
       </c>
@@ -6926,7 +6910,7 @@
         <v>68800</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>140410910854</v>
       </c>
@@ -6958,7 +6942,7 @@
         <v>37499.366999999998</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>139703710828</v>
       </c>
@@ -6990,7 +6974,7 @@
         <v>12399.813</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>138537610762</v>
       </c>
@@ -7022,7 +7006,7 @@
         <v>33024.639999999999</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>140614410858</v>
       </c>
@@ -7054,7 +7038,7 @@
         <v>14868.132</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>140180210839</v>
       </c>
@@ -7086,7 +7070,7 @@
         <v>61600</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>139748410869</v>
       </c>
@@ -7118,7 +7102,7 @@
         <v>65794.877999999997</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>140738610866</v>
       </c>
@@ -7150,7 +7134,7 @@
         <v>3276.248</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>140308310850</v>
       </c>
@@ -7182,7 +7166,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>139642310824</v>
       </c>
@@ -7214,7 +7198,7 @@
         <v>13336.351000000001</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>139860710836</v>
       </c>
@@ -7246,7 +7230,7 @@
         <v>19079.400000000001</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>139659910826</v>
       </c>
@@ -7278,7 +7262,7 @@
         <v>71356.570999999996</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>139717910831</v>
       </c>
@@ -7310,7 +7294,7 @@
         <v>10370.575999999999</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>139578710870</v>
       </c>
@@ -7342,7 +7326,7 @@
         <v>70231.89</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>140505410856</v>
       </c>
@@ -7374,7 +7358,7 @@
         <v>29636.07</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>140546210857</v>
       </c>
@@ -7406,7 +7390,7 @@
         <v>19665.580999999998</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>139246110794</v>
       </c>
@@ -7438,7 +7422,7 @@
         <v>72600</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>140711010860</v>
       </c>
@@ -7470,7 +7454,7 @@
         <v>11812.677</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>139762210833</v>
       </c>
@@ -7502,7 +7486,7 @@
         <v>78650</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>140338410852</v>
       </c>
@@ -7534,7 +7518,7 @@
         <v>6999.8739999999998</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>140902610884</v>
       </c>
@@ -7566,7 +7550,7 @@
         <v>3290.2150000000001</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>139709910830</v>
       </c>
@@ -7598,7 +7582,7 @@
         <v>29987.179999999997</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>139708610829</v>
       </c>
@@ -7630,7 +7614,7 @@
         <v>103876.98</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>140712410862</v>
       </c>
@@ -7662,7 +7646,7 @@
         <v>68502.252999999997</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>140308610851</v>
       </c>
@@ -7694,7 +7678,7 @@
         <v>14929.912</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>140755610873</v>
       </c>
@@ -7726,7 +7710,7 @@
         <v>26970.523000000001</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>140905110885</v>
       </c>
@@ -7758,7 +7742,7 @@
         <v>24934.213</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>140729610865</v>
       </c>
@@ -7790,7 +7774,7 @@
         <v>68558.048999999999</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>140505410894</v>
       </c>
@@ -7822,7 +7806,7 @@
         <v>24823.154999999999</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>140765010880</v>
       </c>
@@ -7854,7 +7838,7 @@
         <v>4483.268</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>139592810821</v>
       </c>
@@ -7886,7 +7870,7 @@
         <v>69300</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>140711010895</v>
       </c>
@@ -7918,7 +7902,7 @@
         <v>29161.400999999998</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>140764910879</v>
       </c>
@@ -7950,7 +7934,7 @@
         <v>56678.622000000003</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>140763710874</v>
       </c>
@@ -7982,7 +7966,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>140300710845</v>
       </c>
@@ -8014,7 +7998,7 @@
         <v>69300</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>141220510897</v>
       </c>
@@ -8046,7 +8030,7 @@
         <v>3469.9650000000001</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>140755610904</v>
       </c>
@@ -8078,7 +8062,7 @@
         <v>26900.202000000001</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>140766210882</v>
       </c>
@@ -8110,7 +8094,7 @@
         <v>35406</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>140214010843</v>
       </c>
@@ -8142,7 +8126,7 @@
         <v>7350.7800000000007</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>141020110887</v>
       </c>
@@ -8174,7 +8158,7 @@
         <v>22117.065999999999</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>140285210844</v>
       </c>
@@ -8206,7 +8190,7 @@
         <v>19622</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>140764510876</v>
       </c>
@@ -8238,7 +8222,7 @@
         <v>70877.683999999994</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>140764610877</v>
       </c>
@@ -8270,7 +8254,7 @@
         <v>66486.289999999994</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>141221310898</v>
       </c>
@@ -8302,7 +8286,7 @@
         <v>33894.480000000003</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>140888410883</v>
       </c>
@@ -8334,7 +8318,7 @@
         <v>9592.7639999999992</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>140373510853</v>
       </c>
@@ -8366,7 +8350,7 @@
         <v>72600</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>141266110905</v>
       </c>
@@ -8398,7 +8382,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>140755310878</v>
       </c>
@@ -8430,7 +8414,7 @@
         <v>24828.9</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>140911610886</v>
       </c>
@@ -8462,7 +8446,7 @@
         <v>10121.16</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>140765110881</v>
       </c>
@@ -8494,7 +8478,7 @@
         <v>67739.909</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>140711110861</v>
       </c>
@@ -8526,7 +8510,7 @@
         <v>64304.637000000002</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>141167010893</v>
       </c>
@@ -8558,7 +8542,7 @@
         <v>38998.063999999998</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>141338510922</v>
       </c>
@@ -8590,7 +8574,7 @@
         <v>3293.7019999999998</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>141144410889</v>
       </c>
@@ -8622,7 +8606,7 @@
         <v>5960.6559999999999</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>141340310920</v>
       </c>
@@ -8654,7 +8638,7 @@
         <v>35568.665000000001</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>140108310838</v>
       </c>
@@ -8686,7 +8670,7 @@
         <v>9239.2880000000005</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>141330110929</v>
       </c>
@@ -8718,7 +8702,7 @@
         <v>20408.173999999999</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>140749810867</v>
       </c>
@@ -8750,7 +8734,7 @@
         <v>70927.118000000002</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>141153910891</v>
       </c>
@@ -8782,7 +8766,7 @@
         <v>65598.789999999994</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>141277910910</v>
       </c>
@@ -8814,7 +8798,7 @@
         <v>52268.195</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>141286610915</v>
       </c>
@@ -8846,7 +8830,7 @@
         <v>59000</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>141266310906</v>
       </c>
@@ -8878,7 +8862,7 @@
         <v>45067.93</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>141338610923</v>
       </c>
@@ -8910,7 +8894,7 @@
         <v>2384.431</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>140755110872</v>
       </c>
@@ -8942,7 +8926,7 @@
         <v>67717.070999999996</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>141213210896</v>
       </c>
@@ -8974,7 +8958,7 @@
         <v>21355.75</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>140763810875</v>
       </c>
@@ -9006,7 +8990,7 @@
         <v>79800.001999999993</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>141224310900</v>
       </c>
@@ -9038,7 +9022,7 @@
         <v>70321.539000000004</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>141145310890</v>
       </c>
@@ -9070,7 +9054,7 @@
         <v>9880.2800000000007</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>141302310916</v>
       </c>
@@ -9102,7 +9086,7 @@
         <v>19328.856</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>140108310953</v>
       </c>
@@ -9134,7 +9118,7 @@
         <v>15405.674999999999</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>140723710864</v>
       </c>
@@ -9166,7 +9150,7 @@
         <v>69176.258000000002</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>141167010940</v>
       </c>
@@ -9198,7 +9182,7 @@
         <v>8144</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>141034710888</v>
       </c>
@@ -9230,7 +9214,7 @@
         <v>71500</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>141222810899</v>
       </c>
@@ -9262,7 +9246,7 @@
         <v>45975.7</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>141278810913</v>
       </c>
@@ -9294,7 +9278,7 @@
         <v>66784.357999999993</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>141360010930</v>
       </c>
@@ -9326,7 +9310,7 @@
         <v>5004.9170000000004</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>141343210927</v>
       </c>
@@ -9358,7 +9342,7 @@
         <v>67800</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>141388610934</v>
       </c>
@@ -9390,7 +9374,7 @@
         <v>14176.103999999999</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>141248210901</v>
       </c>
@@ -9422,7 +9406,7 @@
         <v>101599.602</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>141620010948</v>
       </c>
@@ -9454,7 +9438,7 @@
         <v>3556.1480000000001</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>141347410924</v>
       </c>
@@ -9486,7 +9470,7 @@
         <v>14963.12</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>141336410919</v>
       </c>
@@ -9518,7 +9502,7 @@
         <v>52750</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>141347610925</v>
       </c>
@@ -9550,7 +9534,7 @@
         <v>64018.966999999997</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>141621110949</v>
       </c>
@@ -9582,7 +9566,7 @@
         <v>32500.781000000003</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>141277810909</v>
       </c>
@@ -9614,7 +9598,7 @@
         <v>20159.990000000002</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>141351810928</v>
       </c>
@@ -9646,7 +9630,7 @@
         <v>26404.571</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>141268110908</v>
       </c>
@@ -9678,7 +9662,7 @@
         <v>71500</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>141382710933</v>
       </c>
@@ -9710,7 +9694,7 @@
         <v>6830.7079999999996</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>141366410932</v>
       </c>
@@ -9742,7 +9726,7 @@
         <v>56234.33</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>141803510957</v>
       </c>
@@ -9774,7 +9758,7 @@
         <v>14762.713</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>141351710926</v>
       </c>
@@ -9806,7 +9790,7 @@
         <v>68415.694000000003</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>140214010917</v>
       </c>
@@ -9838,7 +9822,7 @@
         <v>11006.52</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>141364110931</v>
       </c>
@@ -9870,7 +9854,7 @@
         <v>23373.069</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>142343910969</v>
       </c>
@@ -9902,7 +9886,7 @@
         <v>3571.652</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>141278910914</v>
       </c>
@@ -9934,7 +9918,7 @@
         <v>65710.820999999996</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>142057010963</v>
       </c>
@@ -9966,7 +9950,7 @@
         <v>15374</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>141165110892</v>
       </c>
@@ -9998,7 +9982,7 @@
         <v>25322.92</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>142042610960</v>
       </c>
@@ -10030,7 +10014,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>141572410946</v>
       </c>
@@ -10062,7 +10046,7 @@
         <v>2970.4850000000001</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>141278210911</v>
       </c>
@@ -10094,7 +10078,7 @@
         <v>70660.83</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>141406610935</v>
       </c>
@@ -10126,7 +10110,7 @@
         <v>50432.37</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>142042410959</v>
       </c>
@@ -10158,7 +10142,7 @@
         <v>20182.411</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>142060510962</v>
       </c>
@@ -10190,7 +10174,7 @@
         <v>71490</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>141548910939</v>
       </c>
@@ -10222,7 +10206,7 @@
         <v>70538.317999999999</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>141666110952</v>
       </c>
@@ -10254,7 +10238,7 @@
         <v>18884</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>141536610982</v>
       </c>
@@ -10286,7 +10270,7 @@
         <v>14935.781000000001</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>141559310942</v>
       </c>
@@ -10318,7 +10302,7 @@
         <v>8551.8909999999996</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>142265910966</v>
       </c>
@@ -10350,7 +10334,7 @@
         <v>70904.217999999993</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>142042110958</v>
       </c>
@@ -10382,7 +10366,7 @@
         <v>28477.094000000001</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>141661210951</v>
       </c>
@@ -10414,7 +10398,7 @@
         <v>69300</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>141578910947</v>
       </c>
@@ -10446,7 +10430,7 @@
         <v>57093.764000000003</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>142627010984</v>
       </c>
@@ -10478,7 +10462,7 @@
         <v>12841.651</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>141795010955</v>
       </c>
@@ -10510,7 +10494,7 @@
         <v>50500</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>141565310943</v>
       </c>
@@ -10542,7 +10526,7 @@
         <v>15007.7</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>142764110995</v>
       </c>
@@ -10574,7 +10558,7 @@
         <v>3246.768</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>142457210975</v>
       </c>
@@ -10606,7 +10590,7 @@
         <v>71627</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>142545410981</v>
       </c>
@@ -10638,7 +10622,7 @@
         <v>30675.938999999998</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>141411210936</v>
       </c>
@@ -10670,7 +10654,7 @@
         <v>57495.13</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>141799610956</v>
       </c>
@@ -10702,7 +10686,7 @@
         <v>18839.45</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>141549910941</v>
       </c>
@@ -10734,7 +10718,7 @@
         <v>69299.95</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>142629510985</v>
       </c>
@@ -10766,7 +10750,7 @@
         <v>31383.106</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>142338510968</v>
       </c>
@@ -10798,7 +10782,7 @@
         <v>95663.977000000014</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>142053510961</v>
       </c>
@@ -10830,7 +10814,7 @@
         <v>21376.538</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>142507010976</v>
       </c>
@@ -10862,7 +10846,7 @@
         <v>10462</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>141534510937</v>
       </c>
@@ -10894,7 +10878,7 @@
         <v>68663.078999999998</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>142758510994</v>
       </c>
@@ -10926,7 +10910,7 @@
         <v>41587.688000000002</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>141775310954</v>
       </c>
@@ -10958,7 +10942,7 @@
         <v>66213.952999999994</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>142690310992</v>
       </c>
@@ -10990,7 +10974,7 @@
         <v>69086.225999999995</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>141266910907</v>
       </c>
@@ -11022,7 +11006,7 @@
         <v>36053.94</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>141343010921</v>
       </c>
@@ -11054,7 +11038,7 @@
         <v>41916.31</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>142507410977</v>
       </c>
@@ -11086,7 +11070,7 @@
         <v>23536.735000000001</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>142947610996</v>
       </c>
@@ -11118,7 +11102,7 @@
         <v>3273.6990000000001</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>142478110978</v>
       </c>
@@ -11150,7 +11134,7 @@
         <v>29371.87</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>142681010988</v>
       </c>
@@ -11182,7 +11166,7 @@
         <v>70205.551999999996</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>142663110986</v>
       </c>
@@ -11214,7 +11198,7 @@
         <v>70659.554000000004</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>142456110973</v>
       </c>
@@ -11246,7 +11230,7 @@
         <v>72765</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>141566010944</v>
       </c>
@@ -11278,7 +11262,7 @@
         <v>48323.76</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>142118210964</v>
       </c>
@@ -11310,7 +11294,7 @@
         <v>786.64400000000001</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>143028611002</v>
       </c>
@@ -11342,7 +11326,7 @@
         <v>2941.5169999999998</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>142758511011</v>
       </c>
@@ -11374,7 +11358,7 @@
         <v>24245.182000000001</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>142402210971</v>
       </c>
@@ -11406,7 +11390,7 @@
         <v>68867</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>142685410990</v>
       </c>
@@ -11438,7 +11422,7 @@
         <v>37100.607000000004</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>143019310999</v>
       </c>
@@ -11470,7 +11454,7 @@
         <v>66150</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>142281210967</v>
       </c>
@@ -11502,7 +11486,7 @@
         <v>42254.17</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>143158211005</v>
       </c>
@@ -11534,7 +11518,7 @@
         <v>70810.582999999999</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>143328211015</v>
       </c>
@@ -11566,7 +11550,7 @@
         <v>27206.631000000001</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>141536310938</v>
       </c>
@@ -11598,7 +11582,7 @@
         <v>49286.06</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>142258410965</v>
       </c>
@@ -11630,7 +11614,7 @@
         <v>70332.123999999996</v>
       </c>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>142686910991</v>
       </c>
@@ -11662,7 +11646,7 @@
         <v>69200</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>142507011009</v>
       </c>
@@ -11694,7 +11678,7 @@
         <v>22530</v>
       </c>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>143698011025</v>
       </c>
@@ -11726,7 +11710,7 @@
         <v>3442.58</v>
       </c>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>143268911010</v>
       </c>
@@ -11758,7 +11742,7 @@
         <v>70349.993000000002</v>
       </c>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>143179311007</v>
       </c>
@@ -11790,7 +11774,7 @@
         <v>64000</v>
       </c>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>142757910993</v>
       </c>
@@ -11822,7 +11806,7 @@
         <v>70200</v>
       </c>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>143389111018</v>
       </c>
@@ -11854,7 +11838,7 @@
         <v>67442.024000000005</v>
       </c>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>144080311040</v>
       </c>
@@ -11886,7 +11870,7 @@
         <v>32720.207999999999</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>141638110950</v>
       </c>
@@ -11918,7 +11902,7 @@
         <v>13149.16</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>143178311006</v>
       </c>
@@ -11950,7 +11934,7 @@
         <v>14805.863000000001</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>144109511043</v>
       </c>
@@ -11982,7 +11966,7 @@
         <v>17546.595000000001</v>
       </c>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>143703211027</v>
       </c>
@@ -12014,7 +11998,7 @@
         <v>23114.73</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>143313411012</v>
       </c>
@@ -12046,7 +12030,7 @@
         <v>52891.815999999999</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>143328211050</v>
       </c>
@@ -12078,7 +12062,7 @@
         <v>20291.916000000001</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>142959810997</v>
       </c>
@@ -12110,7 +12094,7 @@
         <v>69850</v>
       </c>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>144207311049</v>
       </c>
@@ -12142,7 +12126,7 @@
         <v>1535.326</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>143085811003</v>
       </c>
@@ -12174,7 +12158,7 @@
         <v>70800.558000000005</v>
       </c>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>141278610912</v>
       </c>
@@ -12206,7 +12190,7 @@
         <v>20004.809999999998</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>144444511059</v>
       </c>
@@ -12238,7 +12222,7 @@
         <v>11694.425999999999</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>143218111008</v>
       </c>
@@ -12270,7 +12254,7 @@
         <v>69552.475999999995</v>
       </c>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>143696411024</v>
       </c>
@@ -12302,7 +12286,7 @@
         <v>14247.028</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>144109111041</v>
       </c>
@@ -12334,7 +12318,7 @@
         <v>9173.2389999999996</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>144207311066</v>
       </c>
@@ -12366,7 +12350,7 @@
         <v>2031.0029999999999</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>143019611000</v>
       </c>
@@ -12398,7 +12382,7 @@
         <v>20505.53</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>143386811022</v>
       </c>
@@ -12430,7 +12414,7 @@
         <v>3985.4859999999999</v>
       </c>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>142514910979</v>
       </c>
@@ -12462,7 +12446,7 @@
         <v>69688.645000000004</v>
       </c>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>143115311004</v>
       </c>
@@ -12494,7 +12478,7 @@
         <v>33094.690999999999</v>
       </c>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>143369411017</v>
       </c>
@@ -12526,7 +12510,7 @@
         <v>20014</v>
       </c>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>143367611016</v>
       </c>
@@ -12558,7 +12542,7 @@
         <v>53150.239000000001</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>142528810980</v>
       </c>
@@ -12590,7 +12574,7 @@
         <v>12002.3</v>
       </c>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>144109211042</v>
       </c>
@@ -12622,7 +12606,7 @@
         <v>9127.9130000000005</v>
       </c>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>143724011028</v>
       </c>
@@ -12654,7 +12638,7 @@
         <v>10495.91</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>144362911055</v>
       </c>
@@ -12686,7 +12670,7 @@
         <v>20105.669999999998</v>
       </c>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>143390911019</v>
       </c>
@@ -12718,7 +12702,7 @@
         <v>60250.156999999999</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>144663211065</v>
       </c>
@@ -12750,7 +12734,7 @@
         <v>797.73299999999995</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>143014510998</v>
       </c>
@@ -12782,7 +12766,7 @@
         <v>66650</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>139577710819</v>
       </c>
@@ -12814,7 +12798,7 @@
         <v>37390.78</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>144293311052</v>
       </c>
@@ -12846,7 +12830,7 @@
         <v>67107.392999999996</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>143602811023</v>
       </c>
@@ -12878,7 +12862,7 @@
         <v>69907.466</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>144780911072</v>
       </c>
@@ -12910,7 +12894,7 @@
         <v>21318.621999999999</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>142347110970</v>
       </c>
@@ -12942,7 +12926,7 @@
         <v>233.36</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>144966911084</v>
       </c>
@@ -12974,7 +12958,7 @@
         <v>19431.927</v>
       </c>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>145185111100</v>
       </c>
@@ -13006,7 +12990,7 @@
         <v>70765.009000000005</v>
       </c>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>144835111077</v>
       </c>
@@ -13038,7 +13022,7 @@
         <v>3150.8290000000002</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>143314611013</v>
       </c>
@@ -13070,7 +13054,7 @@
         <v>69929</v>
       </c>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>144635611061</v>
       </c>
@@ -13102,7 +13086,7 @@
         <v>72600</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>144781111073</v>
       </c>
@@ -13134,7 +13118,7 @@
         <v>35105.792999999998</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>144293311112</v>
       </c>
@@ -13166,7 +13150,7 @@
         <v>227.607</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>144177911046</v>
       </c>
@@ -13198,7 +13182,7 @@
         <v>6395.8649999999998</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>144770611069</v>
       </c>
@@ -13230,7 +13214,7 @@
         <v>21245</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>144835111114</v>
       </c>
@@ -13262,7 +13246,7 @@
         <v>1687.7750000000001</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>143701311026</v>
       </c>
@@ -13294,7 +13278,7 @@
         <v>71025.695000000007</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>144110411044</v>
       </c>
@@ -13326,7 +13310,7 @@
         <v>21336.159</v>
       </c>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>144719311067</v>
       </c>
@@ -13358,7 +13342,7 @@
         <v>59077.635999999999</v>
       </c>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>144108711075</v>
       </c>
@@ -13390,7 +13374,7 @@
         <v>65529.468000000001</v>
       </c>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>144780711071</v>
       </c>
@@ -13422,7 +13406,7 @@
         <v>5805.1490000000003</v>
       </c>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>145548511113</v>
       </c>
@@ -13454,7 +13438,7 @@
         <v>12669.635</v>
       </c>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>144805911076</v>
       </c>
@@ -13486,7 +13470,7 @@
         <v>49700</v>
       </c>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>145237511103</v>
       </c>
@@ -13518,7 +13502,7 @@
         <v>8912.02</v>
       </c>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>144865911079</v>
       </c>
@@ -13550,7 +13534,7 @@
         <v>55051.188999999998</v>
       </c>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>144721411068</v>
       </c>
@@ -13582,7 +13566,7 @@
         <v>65530.724999999999</v>
       </c>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>145604311124</v>
       </c>
@@ -13614,7 +13598,7 @@
         <v>9345.83</v>
       </c>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>144116011045</v>
       </c>
@@ -13646,7 +13630,7 @@
         <v>70206.694000000003</v>
       </c>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>144964711082</v>
       </c>
@@ -13678,7 +13662,7 @@
         <v>6910.8890000000001</v>
       </c>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>144971411085</v>
       </c>
@@ -13710,7 +13694,7 @@
         <v>6183.7489999999998</v>
       </c>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>143026011001</v>
       </c>
@@ -13742,7 +13726,7 @@
         <v>6613.6</v>
       </c>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>144966111083</v>
       </c>
@@ -13774,7 +13758,7 @@
         <v>24368</v>
       </c>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>145592711120</v>
       </c>
@@ -13806,7 +13790,7 @@
         <v>3298.2269999999999</v>
       </c>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>145592511119</v>
       </c>
@@ -13838,7 +13822,7 @@
         <v>26128.946</v>
       </c>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>144639911062</v>
       </c>
@@ -13870,7 +13854,7 @@
         <v>797.83299999999997</v>
       </c>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>145222211102</v>
       </c>
@@ -13902,7 +13886,7 @@
         <v>70200.471999999994</v>
       </c>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>144947711080</v>
       </c>
@@ -13934,7 +13918,7 @@
         <v>64501.298000000003</v>
       </c>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>144624111060</v>
       </c>
@@ -13966,7 +13950,7 @@
         <v>70414.271999999997</v>
       </c>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>145524011110</v>
       </c>
@@ -13998,7 +13982,7 @@
         <v>11051.956</v>
       </c>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>144407411057</v>
       </c>
@@ -14030,7 +14014,7 @@
         <v>25125.46</v>
       </c>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>144780911111</v>
       </c>
@@ -14062,7 +14046,7 @@
         <v>16400.109</v>
       </c>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>145352611105</v>
       </c>
@@ -14094,7 +14078,7 @@
         <v>59000</v>
       </c>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>144964211081</v>
       </c>
@@ -14126,7 +14110,7 @@
         <v>7136.7340000000004</v>
       </c>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>145192111101</v>
       </c>
@@ -14158,7 +14142,7 @@
         <v>65303.042000000001</v>
       </c>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>145360711106</v>
       </c>
@@ -14190,7 +14174,7 @@
         <v>24473.919000000002</v>
       </c>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>145472411109</v>
       </c>
@@ -14222,7 +14206,7 @@
         <v>67701.646999999997</v>
       </c>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>144865911141</v>
       </c>
@@ -14254,7 +14238,7 @@
         <v>3463.2979999999998</v>
       </c>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>145252811104</v>
       </c>
@@ -14286,7 +14270,7 @@
         <v>14545.483</v>
       </c>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>145586111127</v>
       </c>
@@ -14318,7 +14302,7 @@
         <v>66177.441000000006</v>
       </c>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>144292811051</v>
       </c>
@@ -14350,7 +14334,7 @@
         <v>32822.639999999999</v>
       </c>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>145793611145</v>
       </c>
@@ -14382,7 +14366,7 @@
         <v>12366.067999999999</v>
       </c>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>145600011121</v>
       </c>
@@ -14414,7 +14398,7 @@
         <v>67033.486000000004</v>
       </c>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>145591511118</v>
       </c>
@@ -14446,7 +14430,7 @@
         <v>65439.627</v>
       </c>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>144784711074</v>
       </c>
@@ -14478,7 +14462,7 @@
         <v>103970.60500000001</v>
       </c>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>144777611070</v>
       </c>
@@ -14510,7 +14494,7 @@
         <v>43323.59</v>
       </c>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>145775311143</v>
       </c>
@@ -14542,7 +14526,7 @@
         <v>71500</v>
       </c>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>145718111135</v>
       </c>
@@ -14574,7 +14558,7 @@
         <v>8914.8130000000001</v>
       </c>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>145711911134</v>
       </c>
@@ -14606,7 +14590,7 @@
         <v>7968.15</v>
       </c>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>145718311136</v>
       </c>
@@ -14638,7 +14622,7 @@
         <v>3464.8409999999999</v>
       </c>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>145584111115</v>
       </c>
@@ -14670,7 +14654,7 @@
         <v>71500</v>
       </c>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>145718611137</v>
       </c>
@@ -14702,7 +14686,7 @@
         <v>19364.028999999999</v>
       </c>
     </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>145606511125</v>
       </c>
@@ -14734,7 +14718,7 @@
         <v>56279.472999999998</v>
       </c>
     </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>145793611164</v>
       </c>
@@ -14766,7 +14750,7 @@
         <v>7970.1670000000004</v>
       </c>
     </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>144316811053</v>
       </c>
@@ -14798,7 +14782,7 @@
         <v>10019.950000000001</v>
       </c>
     </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>145705211133</v>
       </c>
@@ -14830,7 +14814,7 @@
         <v>32341.566999999999</v>
       </c>
     </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>146039511153</v>
       </c>
@@ -14862,7 +14846,7 @@
         <v>68792.918000000005</v>
       </c>
     </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>146116511165</v>
       </c>
@@ -14894,7 +14878,7 @@
         <v>51.207000000000001</v>
       </c>
     </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>145665711129</v>
       </c>
@@ -14926,7 +14910,7 @@
         <v>22226.58</v>
       </c>
     </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>146111411155</v>
       </c>
@@ -14958,7 +14942,7 @@
         <v>47757.082000000002</v>
       </c>
     </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>145749711138</v>
       </c>
@@ -14990,7 +14974,7 @@
         <v>13911.462</v>
       </c>
     </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>146191111160</v>
       </c>
@@ -15022,7 +15006,7 @@
         <v>13904.696</v>
       </c>
     </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>145951511148</v>
       </c>
@@ -15054,7 +15038,7 @@
         <v>71500</v>
       </c>
     </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>145590311117</v>
       </c>
@@ -15086,7 +15070,7 @@
         <v>22670</v>
       </c>
     </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>145359811107</v>
       </c>
@@ -15118,7 +15102,7 @@
         <v>70400.967999999993</v>
       </c>
     </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>146190611161</v>
       </c>
@@ -15150,7 +15134,7 @@
         <v>32119.788</v>
       </c>
     </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>145890611147</v>
       </c>
@@ -15182,7 +15166,7 @@
         <v>51000</v>
       </c>
     </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>146241611168</v>
       </c>
@@ -15214,7 +15198,7 @@
         <v>3238.7069999999999</v>
       </c>
     </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>144426111058</v>
       </c>
@@ -15246,7 +15230,7 @@
         <v>29883.77</v>
       </c>
     </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>146128411157</v>
       </c>
@@ -15278,7 +15262,7 @@
         <v>18317.245999999999</v>
       </c>
     </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>145752111139</v>
       </c>
@@ -15310,7 +15294,7 @@
         <v>71295.062999999995</v>
       </c>
     </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>145585811116</v>
       </c>
@@ -15342,7 +15326,7 @@
         <v>21260.3</v>
       </c>
     </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>145606711126</v>
       </c>
@@ -15374,7 +15358,7 @@
         <v>52586.347000000002</v>
       </c>
     </row>
-    <row r="422" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>145800711146</v>
       </c>
@@ -15406,7 +15390,7 @@
         <v>6685.7</v>
       </c>
     </row>
-    <row r="423" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>145759911140</v>
       </c>
@@ -15438,7 +15422,7 @@
         <v>70232.672000000006</v>
       </c>
     </row>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>146241411167</v>
       </c>
@@ -15470,7 +15454,7 @@
         <v>8291.0470000000005</v>
       </c>
     </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>146191611162</v>
       </c>
@@ -15502,7 +15486,7 @@
         <v>13163.347</v>
       </c>
     </row>
-    <row r="426" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>145673511130</v>
       </c>
@@ -15534,7 +15518,7 @@
         <v>66925.395999999993</v>
       </c>
     </row>
-    <row r="427" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>145704711132</v>
       </c>
@@ -15566,7 +15550,7 @@
         <v>20826.45</v>
       </c>
     </row>
-    <row r="428" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>146121411156</v>
       </c>
@@ -15598,7 +15582,7 @@
         <v>32400</v>
       </c>
     </row>
-    <row r="429" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>145994111149</v>
       </c>
@@ -15630,7 +15614,7 @@
         <v>37551.535000000003</v>
       </c>
     </row>
-    <row r="430" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>145447111108</v>
       </c>
@@ -15662,7 +15646,7 @@
         <v>53134.716</v>
       </c>
     </row>
-    <row r="431" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>145600211122</v>
       </c>
@@ -15694,7 +15678,7 @@
         <v>38383.570999999996</v>
       </c>
     </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>146587511174</v>
       </c>
@@ -15726,7 +15710,7 @@
         <v>24341</v>
       </c>
     </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>146695411179</v>
       </c>
@@ -15758,7 +15742,7 @@
         <v>15514.115</v>
       </c>
     </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>146232911166</v>
       </c>
@@ -15790,7 +15774,7 @@
         <v>6472.0079999999998</v>
       </c>
     </row>
-    <row r="435" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>146855411192</v>
       </c>
@@ -15822,7 +15806,7 @@
         <v>66946.19</v>
       </c>
     </row>
-    <row r="436" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>146517611170</v>
       </c>
@@ -15854,7 +15838,7 @@
         <v>70055.254000000001</v>
       </c>
     </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>146014411150</v>
       </c>
@@ -15886,7 +15870,7 @@
         <v>66518.574999999997</v>
       </c>
     </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>146031111151</v>
       </c>
@@ -15918,7 +15902,7 @@
         <v>7485.9830000000002</v>
       </c>
     </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>146850811190</v>
       </c>
@@ -15950,7 +15934,7 @@
         <v>3487.3209999999999</v>
       </c>
     </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>145585811201</v>
       </c>
@@ -15982,7 +15966,7 @@
         <v>40716.83</v>
       </c>
     </row>
-    <row r="441" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>146241411209</v>
       </c>
@@ -16014,7 +15998,7 @@
         <v>6566.5010000000002</v>
       </c>
     </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>146580011171</v>
       </c>
@@ -16046,7 +16030,7 @@
         <v>69647.899999999994</v>
       </c>
     </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>146037611152</v>
       </c>
@@ -16078,7 +16062,7 @@
         <v>79228.55</v>
       </c>
     </row>
-    <row r="444" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>147324411207</v>
       </c>
@@ -16110,7 +16094,7 @@
         <v>28935.626</v>
       </c>
     </row>
-    <row r="445" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>146857811193</v>
       </c>
@@ -16142,7 +16126,7 @@
         <v>16052.519</v>
       </c>
     </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>146717711182</v>
       </c>
@@ -16174,7 +16158,7 @@
         <v>68088.051000000007</v>
       </c>
     </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>146112611154</v>
       </c>
@@ -16206,7 +16190,7 @@
         <v>19410</v>
       </c>
     </row>
-    <row r="448" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>146766111188</v>
       </c>
@@ -16238,7 +16222,7 @@
         <v>27993.017</v>
       </c>
     </row>
-    <row r="449" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>145601611123</v>
       </c>
@@ -16270,7 +16254,7 @@
         <v>19359.04</v>
       </c>
     </row>
-    <row r="450" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>146609211176</v>
       </c>
@@ -16302,7 +16286,7 @@
         <v>20010</v>
       </c>
     </row>
-    <row r="451" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>147243611203</v>
       </c>
@@ -16334,7 +16318,7 @@
         <v>1664.271</v>
       </c>
     </row>
-    <row r="452" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>146723011184</v>
       </c>
@@ -16366,7 +16350,7 @@
         <v>97212.679000000004</v>
       </c>
     </row>
-    <row r="453" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>146246211169</v>
       </c>
@@ -16398,7 +16382,7 @@
         <v>6222.94</v>
       </c>
     </row>
-    <row r="454" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>146695411214</v>
       </c>
@@ -16430,7 +16414,7 @@
         <v>42098.995000000003</v>
       </c>
     </row>
-    <row r="455" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>146246211255</v>
       </c>
@@ -16462,7 +16446,7 @@
         <v>57829.107000000004</v>
       </c>
     </row>
-    <row r="456" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>146699111181</v>
       </c>
@@ -16494,7 +16478,7 @@
         <v>69604.457999999999</v>
       </c>
     </row>
-    <row r="457" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>145775211142</v>
       </c>
@@ -16526,7 +16510,7 @@
         <v>24031.21</v>
       </c>
     </row>
-    <row r="458" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>144853711078</v>
       </c>
@@ -16558,7 +16542,7 @@
         <v>45757.3</v>
       </c>
     </row>
-    <row r="459" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>146584811172</v>
       </c>
@@ -16590,7 +16574,7 @@
         <v>11365.77</v>
       </c>
     </row>
-    <row r="460" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>146858511195</v>
       </c>
@@ -16622,7 +16606,7 @@
         <v>15415.394</v>
       </c>
     </row>
-    <row r="461" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>147079811199</v>
       </c>
@@ -16654,7 +16638,7 @@
         <v>57121.483999999997</v>
       </c>
     </row>
-    <row r="462" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>147309811206</v>
       </c>
@@ -16686,7 +16670,7 @@
         <v>69698.737999999998</v>
       </c>
     </row>
-    <row r="463" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>147246411204</v>
       </c>
@@ -16718,7 +16702,7 @@
         <v>30425.871999999999</v>
       </c>
     </row>
-    <row r="464" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>146852411191</v>
       </c>
@@ -16750,7 +16734,7 @@
         <v>70989.035000000003</v>
       </c>
     </row>
-    <row r="465" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>147538511215</v>
       </c>
@@ -16782,7 +16766,7 @@
         <v>648.60799999999995</v>
       </c>
     </row>
-    <row r="466" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>146858411194</v>
       </c>
@@ -16814,7 +16798,7 @@
         <v>155.458</v>
       </c>
     </row>
-    <row r="467" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>147026911198</v>
       </c>
@@ -16846,7 +16830,7 @@
         <v>43995.917000000001</v>
       </c>
     </row>
-    <row r="468" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>144656111063</v>
       </c>
@@ -16878,7 +16862,7 @@
         <v>30006.74</v>
       </c>
     </row>
-    <row r="469" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>147538511274</v>
       </c>
@@ -16910,7 +16894,7 @@
         <v>13380.572</v>
       </c>
     </row>
-    <row r="470" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>147414611210</v>
       </c>
@@ -16942,7 +16926,7 @@
         <v>8983.6440000000002</v>
       </c>
     </row>
-    <row r="471" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>147243611253</v>
       </c>
@@ -16974,7 +16958,7 @@
         <v>1766.711</v>
       </c>
     </row>
-    <row r="472" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A472">
         <v>146601411175</v>
       </c>
@@ -17006,7 +16990,7 @@
         <v>66550.47</v>
       </c>
     </row>
-    <row r="473" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>146858411275</v>
       </c>
@@ -17038,7 +17022,7 @@
         <v>13380.572</v>
       </c>
     </row>
-    <row r="474" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>145627911128</v>
       </c>
@@ -17070,7 +17054,7 @@
         <v>21010.686000000002</v>
       </c>
     </row>
-    <row r="475" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>147686011222</v>
       </c>
@@ -17102,7 +17086,7 @@
         <v>27719.89</v>
       </c>
     </row>
-    <row r="476" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A476">
         <v>147428111213</v>
       </c>
@@ -17134,7 +17118,7 @@
         <v>40582.399999999994</v>
       </c>
     </row>
-    <row r="477" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A477">
         <v>147944611243</v>
       </c>
@@ -17166,7 +17150,7 @@
         <v>3036.9319999999998</v>
       </c>
     </row>
-    <row r="478" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>148752611279</v>
       </c>
@@ -17198,7 +17182,7 @@
         <v>4090.8919999999998</v>
       </c>
     </row>
-    <row r="479" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>147421311211</v>
       </c>
@@ -17230,7 +17214,7 @@
         <v>68750.292000000001</v>
       </c>
     </row>
-    <row r="480" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>146858511278</v>
       </c>
@@ -17262,7 +17246,7 @@
         <v>19105.405999999999</v>
       </c>
     </row>
-    <row r="481" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>146761711186</v>
       </c>
@@ -17294,7 +17278,7 @@
         <v>70031.313999999998</v>
       </c>
     </row>
-    <row r="482" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>147228811200</v>
       </c>
@@ -17326,7 +17310,7 @@
         <v>70439.111000000004</v>
       </c>
     </row>
-    <row r="483" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>147572611217</v>
       </c>
@@ -17358,7 +17342,7 @@
         <v>17549.236000000001</v>
       </c>
     </row>
-    <row r="484" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>146691211178</v>
       </c>
@@ -17390,7 +17374,7 @@
         <v>39203.919999999998</v>
       </c>
     </row>
-    <row r="485" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A485">
         <v>147348311208</v>
       </c>
@@ -17422,7 +17406,7 @@
         <v>59000</v>
       </c>
     </row>
-    <row r="486" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>147572311216</v>
       </c>
@@ -17454,7 +17438,7 @@
         <v>25519.989000000001</v>
       </c>
     </row>
-    <row r="487" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A487">
         <v>147940611240</v>
       </c>
@@ -17486,7 +17470,7 @@
         <v>70743.034</v>
       </c>
     </row>
-    <row r="488" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>146977111196</v>
       </c>
@@ -17518,7 +17502,7 @@
         <v>70153.620999999999</v>
       </c>
     </row>
-    <row r="489" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A489">
         <v>146991111197</v>
       </c>
@@ -17550,7 +17534,7 @@
         <v>42196.482000000004</v>
       </c>
     </row>
-    <row r="490" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A490">
         <v>147962111254</v>
       </c>
@@ -17582,7 +17566,7 @@
         <v>3505.68</v>
       </c>
     </row>
-    <row r="491" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A491">
         <v>147951611249</v>
       </c>
@@ -17614,7 +17598,7 @@
         <v>71110</v>
       </c>
     </row>
-    <row r="492" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A492">
         <v>147959411252</v>
       </c>
@@ -17646,7 +17630,7 @@
         <v>71075.013000000006</v>
       </c>
     </row>
-    <row r="493" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A493">
         <v>148050411261</v>
       </c>
@@ -17678,7 +17662,7 @@
         <v>72500</v>
       </c>
     </row>
-    <row r="494" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A494">
         <v>146761511187</v>
       </c>
@@ -17710,7 +17694,7 @@
         <v>42143.01</v>
       </c>
     </row>
-    <row r="495" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A495">
         <v>148385611272</v>
       </c>
@@ -17742,7 +17726,7 @@
         <v>6753.5879999999997</v>
       </c>
     </row>
-    <row r="496" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A496">
         <v>147674211221</v>
       </c>
@@ -17774,7 +17758,7 @@
         <v>17082.781999999999</v>
       </c>
     </row>
-    <row r="497" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A497">
         <v>146847111189</v>
       </c>
@@ -17806,7 +17790,7 @@
         <v>56704.559000000001</v>
       </c>
     </row>
-    <row r="498" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A498">
         <v>148160811262</v>
       </c>
@@ -17838,7 +17822,7 @@
         <v>15205.648999999999</v>
       </c>
     </row>
-    <row r="499" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A499">
         <v>148017311258</v>
       </c>
@@ -17870,7 +17854,7 @@
         <v>9376</v>
       </c>
     </row>
-    <row r="500" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A500">
         <v>147238511202</v>
       </c>
@@ -17902,7 +17886,7 @@
         <v>47855.360000000001</v>
       </c>
     </row>
-    <row r="501" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A501">
         <v>148049011260</v>
       </c>
@@ -17934,7 +17918,7 @@
         <v>70400.766000000003</v>
       </c>
     </row>
-    <row r="502" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A502">
         <v>148464911276</v>
       </c>
@@ -17966,7 +17950,7 @@
         <v>32848.892999999996</v>
       </c>
     </row>
-    <row r="503" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A503">
         <v>146175811159</v>
       </c>
@@ -17998,7 +17982,7 @@
         <v>36510.620000000003</v>
       </c>
     </row>
-    <row r="504" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A504">
         <v>148810511287</v>
       </c>
@@ -18030,7 +18014,7 @@
         <v>65231.855000000003</v>
       </c>
     </row>
-    <row r="505" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A505">
         <v>148753911280</v>
       </c>
@@ -18062,7 +18046,7 @@
         <v>69300</v>
       </c>
     </row>
-    <row r="506" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A506">
         <v>147573011218</v>
       </c>
@@ -18094,7 +18078,7 @@
         <v>3352.91</v>
       </c>
     </row>
-    <row r="507" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A507">
         <v>148880611288</v>
       </c>
@@ -18126,7 +18110,7 @@
         <v>94448.241999999998</v>
       </c>
     </row>
-    <row r="508" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A508">
         <v>148260211268</v>
       </c>
@@ -18158,7 +18142,7 @@
         <v>69470</v>
       </c>
     </row>
-    <row r="509" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A509">
         <v>147944411241</v>
       </c>
@@ -18190,7 +18174,7 @@
         <v>27693.258000000002</v>
       </c>
     </row>
-    <row r="510" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A510">
         <v>146611511177</v>
       </c>
@@ -18222,7 +18206,7 @@
         <v>34514.46</v>
       </c>
     </row>
-    <row r="511" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A511">
         <v>147957811251</v>
       </c>
@@ -18254,7 +18238,7 @@
         <v>66180.399000000005</v>
       </c>
     </row>
-    <row r="512" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A512">
         <v>148017311327</v>
       </c>
@@ -18286,7 +18270,7 @@
         <v>64991</v>
       </c>
     </row>
-    <row r="513" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A513">
         <v>149246411301</v>
       </c>
@@ -18318,7 +18302,7 @@
         <v>23590.758999999998</v>
       </c>
     </row>
-    <row r="514" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A514">
         <v>146156811158</v>
       </c>
@@ -18350,7 +18334,7 @@
         <v>6477.8370000000004</v>
       </c>
     </row>
-    <row r="515" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A515">
         <v>147673411220</v>
       </c>
@@ -18382,7 +18366,7 @@
         <v>67393.494999999995</v>
       </c>
     </row>
-    <row r="516" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A516">
         <v>147422311212</v>
       </c>
@@ -18414,7 +18398,7 @@
         <v>49333.490000000005</v>
       </c>
     </row>
-    <row r="517" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A517">
         <v>149960911331</v>
       </c>
@@ -18446,7 +18430,7 @@
         <v>9697.4519999999993</v>
       </c>
     </row>
-    <row r="518" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A518">
         <v>148173611265</v>
       </c>
@@ -18478,7 +18462,7 @@
         <v>49300</v>
       </c>
     </row>
-    <row r="519" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A519">
         <v>149150411296</v>
       </c>
@@ -18510,7 +18494,7 @@
         <v>21913.777999999998</v>
       </c>
     </row>
-    <row r="520" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A520">
         <v>148395311273</v>
       </c>
@@ -18542,7 +18526,7 @@
         <v>69300</v>
       </c>
     </row>
-    <row r="521" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A521">
         <v>149553511321</v>
       </c>
@@ -18574,7 +18558,7 @@
         <v>25343.981</v>
       </c>
     </row>
-    <row r="522" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A522">
         <v>148483111277</v>
       </c>
@@ -18606,7 +18590,7 @@
         <v>22432.69</v>
       </c>
     </row>
-    <row r="523" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A523">
         <v>148798711285</v>
       </c>
@@ -18638,7 +18622,7 @@
         <v>77000</v>
       </c>
     </row>
-    <row r="524" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A524">
         <v>148299511289</v>
       </c>
@@ -18670,7 +18654,7 @@
         <v>59211.807000000001</v>
       </c>
     </row>
-    <row r="525" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A525">
         <v>150398011339</v>
       </c>
@@ -18702,7 +18686,7 @@
         <v>23988.198</v>
       </c>
     </row>
-    <row r="526" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A526">
         <v>148269211269</v>
       </c>
@@ -18734,7 +18718,7 @@
         <v>21990.93</v>
       </c>
     </row>
-    <row r="527" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A527">
         <v>149584411323</v>
       </c>
@@ -18766,7 +18750,7 @@
         <v>3679.6729999999998</v>
       </c>
     </row>
-    <row r="528" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A528">
         <v>149145011293</v>
       </c>
@@ -18798,7 +18782,7 @@
         <v>68751</v>
       </c>
     </row>
-    <row r="529" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A529">
         <v>148767611283</v>
       </c>
@@ -18830,7 +18814,7 @@
         <v>54566.428999999996</v>
       </c>
     </row>
-    <row r="530" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A530">
         <v>149673211325</v>
       </c>
@@ -18862,7 +18846,7 @@
         <v>71040</v>
       </c>
     </row>
-    <row r="531" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A531">
         <v>149745911328</v>
       </c>
@@ -18894,7 +18878,7 @@
         <v>299.80099999999999</v>
       </c>
     </row>
-    <row r="532" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A532">
         <v>147948211248</v>
       </c>
@@ -18926,7 +18910,7 @@
         <v>7062.3620000000001</v>
       </c>
     </row>
-    <row r="533" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A533">
         <v>148181611266</v>
       </c>
@@ -18958,7 +18942,7 @@
         <v>16456.61</v>
       </c>
     </row>
-    <row r="534" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A534">
         <v>149149311295</v>
       </c>
@@ -18990,7 +18974,7 @@
         <v>69891.273000000001</v>
       </c>
     </row>
-    <row r="535" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A535">
         <v>149246111300</v>
       </c>
@@ -19022,7 +19006,7 @@
         <v>30103.127</v>
       </c>
     </row>
-    <row r="536" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A536">
         <v>147956011250</v>
       </c>
@@ -19054,7 +19038,7 @@
         <v>31523.57</v>
       </c>
     </row>
-    <row r="537" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A537">
         <v>148805811286</v>
       </c>
@@ -19086,7 +19070,7 @@
         <v>69300</v>
       </c>
     </row>
-    <row r="538" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A538">
         <v>149575811322</v>
       </c>
@@ -19118,7 +19102,7 @@
         <v>51296.864000000001</v>
       </c>
     </row>
-    <row r="539" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A539">
         <v>148768711284</v>
       </c>
@@ -19150,7 +19134,7 @@
         <v>16670.884000000002</v>
       </c>
     </row>
-    <row r="540" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A540">
         <v>150434511344</v>
       </c>
@@ -19182,7 +19166,7 @@
         <v>10248.299000000001</v>
       </c>
     </row>
-    <row r="541" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A541">
         <v>148759811281</v>
       </c>
@@ -19214,7 +19198,7 @@
         <v>19799.12</v>
       </c>
     </row>
-    <row r="542" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A542">
         <v>150647211357</v>
       </c>
@@ -19246,7 +19230,7 @@
         <v>27603</v>
       </c>
     </row>
-    <row r="543" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A543">
         <v>149962311332</v>
       </c>
@@ -19278,7 +19262,7 @@
         <v>74009.548999999999</v>
       </c>
     </row>
-    <row r="544" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A544">
         <v>148161111264</v>
       </c>
@@ -19310,7 +19294,7 @@
         <v>32060.639999999999</v>
       </c>
     </row>
-    <row r="545" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A545">
         <v>150039211336</v>
       </c>
@@ -19342,7 +19326,7 @@
         <v>3361.9279999999999</v>
       </c>
     </row>
-    <row r="546" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A546">
         <v>149535211320</v>
       </c>
@@ -19374,7 +19358,7 @@
         <v>70420.899999999994</v>
       </c>
     </row>
-    <row r="547" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A547">
         <v>148768711363</v>
       </c>
@@ -19406,7 +19390,7 @@
         <v>35476.942999999999</v>
       </c>
     </row>
-    <row r="548" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A548">
         <v>147947311247</v>
       </c>
@@ -19438,7 +19422,7 @@
         <v>70860.807000000001</v>
       </c>
     </row>
-    <row r="549" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A549">
         <v>150722211358</v>
       </c>
@@ -19470,7 +19454,7 @@
         <v>21769.233</v>
       </c>
     </row>
-    <row r="550" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A550">
         <v>150559211352</v>
       </c>
@@ -19502,7 +19486,7 @@
         <v>52854.79</v>
       </c>
     </row>
-    <row r="551" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A551">
         <v>148163811263</v>
       </c>
@@ -19534,7 +19518,7 @@
         <v>30158.639999999999</v>
       </c>
     </row>
-    <row r="552" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A552">
         <v>150653911355</v>
       </c>
@@ -19566,7 +19550,7 @@
         <v>21610</v>
       </c>
     </row>
-    <row r="553" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A553">
         <v>149227111299</v>
       </c>
@@ -19598,7 +19582,7 @@
         <v>18989.829999999998</v>
       </c>
     </row>
-    <row r="554" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A554">
         <v>150078111338</v>
       </c>
@@ -19630,7 +19614,7 @@
         <v>70346.997000000003</v>
       </c>
     </row>
-    <row r="555" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A555">
         <v>148887411290</v>
       </c>
@@ -19662,7 +19646,7 @@
         <v>70521.599000000002</v>
       </c>
     </row>
-    <row r="556" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A556">
         <v>150488711351</v>
       </c>
@@ -19694,7 +19678,7 @@
         <v>12971.925999999999</v>
       </c>
     </row>
-    <row r="557" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A557">
         <v>149678211326</v>
       </c>
@@ -19726,7 +19710,7 @@
         <v>69908.395999999993</v>
       </c>
     </row>
-    <row r="558" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A558">
         <v>150564711353</v>
       </c>
@@ -19758,7 +19742,7 @@
         <v>25065.662</v>
       </c>
     </row>
-    <row r="559" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A559">
         <v>151040311366</v>
       </c>
@@ -19790,7 +19774,7 @@
         <v>54500</v>
       </c>
     </row>
-    <row r="560" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A560">
         <v>149147911294</v>
       </c>
@@ -19822,7 +19806,7 @@
         <v>73297.224000000002</v>
       </c>
     </row>
-    <row r="561" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A561">
         <v>151401811371</v>
       </c>
@@ -19854,7 +19838,7 @@
         <v>3379.7040000000002</v>
       </c>
     </row>
-    <row r="562" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A562">
         <v>149208711298</v>
       </c>
@@ -19886,7 +19870,7 @@
         <v>25008.559999999998</v>
       </c>
     </row>
-    <row r="563" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A563">
         <v>150500011348</v>
       </c>
@@ -19918,7 +19902,7 @@
         <v>65170</v>
       </c>
     </row>
-    <row r="564" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A564">
         <v>151072811368</v>
       </c>
@@ -19950,7 +19934,7 @@
         <v>56241.096999999994</v>
       </c>
     </row>
-    <row r="565" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A565">
         <v>150527211350</v>
       </c>
@@ -19982,7 +19966,7 @@
         <v>15661.945</v>
       </c>
     </row>
-    <row r="566" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A566">
         <v>147576711219</v>
       </c>
@@ -20014,7 +19998,7 @@
         <v>45332.78</v>
       </c>
     </row>
-    <row r="567" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A567">
         <v>151595811388</v>
       </c>
@@ -20046,7 +20030,7 @@
         <v>50.18</v>
       </c>
     </row>
-    <row r="568" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A568">
         <v>147944511242</v>
       </c>
@@ -20078,7 +20062,7 @@
         <v>22275.39</v>
       </c>
     </row>
-    <row r="569" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A569">
         <v>150722211386</v>
       </c>
@@ -20110,7 +20094,7 @@
         <v>13157.638999999999</v>
       </c>
     </row>
-    <row r="570" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A570">
         <v>149666211324</v>
       </c>
@@ -20142,7 +20126,7 @@
         <v>69300</v>
       </c>
     </row>
-    <row r="571" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A571">
         <v>150870311362</v>
       </c>
@@ -20174,7 +20158,7 @@
         <v>50531.470999999998</v>
       </c>
     </row>
-    <row r="572" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A572">
         <v>150025311335</v>
       </c>
@@ -20206,7 +20190,7 @@
         <v>71037.607999999993</v>
       </c>
     </row>
-    <row r="573" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A573">
         <v>149990511334</v>
       </c>
@@ -20238,7 +20222,7 @@
         <v>44013.99</v>
       </c>
     </row>
-    <row r="574" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A574">
         <v>151300611370</v>
       </c>
@@ -20270,7 +20254,7 @@
         <v>18289.451000000001</v>
       </c>
     </row>
-    <row r="575" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A575">
         <v>151443411374</v>
       </c>
@@ -20302,7 +20286,7 @@
         <v>7383.26</v>
       </c>
     </row>
-    <row r="576" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A576">
         <v>150730111360</v>
       </c>
@@ -20334,7 +20318,7 @@
         <v>63099.146000000001</v>
       </c>
     </row>
-    <row r="577" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A577">
         <v>151447611377</v>
       </c>
@@ -20366,7 +20350,7 @@
         <v>9834.8389999999999</v>
       </c>
     </row>
-    <row r="578" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A578">
         <v>150485811346</v>
       </c>
@@ -20398,7 +20382,7 @@
         <v>32961.589999999997</v>
       </c>
     </row>
-    <row r="579" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A579">
         <v>149958911330</v>
       </c>
@@ -20430,7 +20414,7 @@
         <v>65150</v>
       </c>
     </row>
-    <row r="580" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A580">
         <v>149816711329</v>
       </c>
@@ -20462,7 +20446,7 @@
         <v>68759.002999999997</v>
       </c>
     </row>
-    <row r="581" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A581">
         <v>151759711387</v>
       </c>
@@ -20494,7 +20478,7 @@
         <v>2992.3910000000001</v>
       </c>
     </row>
-    <row r="582" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A582">
         <v>151629411391</v>
       </c>
@@ -20526,7 +20510,7 @@
         <v>21217.257000000001</v>
       </c>
     </row>
-    <row r="583" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A583">
         <v>151649711385</v>
       </c>
@@ -20558,7 +20542,7 @@
         <v>34592.860999999997</v>
       </c>
     </row>
-    <row r="584" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A584">
         <v>151635311384</v>
       </c>
@@ -20590,7 +20574,7 @@
         <v>70829.8</v>
       </c>
     </row>
-    <row r="585" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A585">
         <v>151508511378</v>
       </c>
@@ -20622,7 +20606,7 @@
         <v>5432.3270000000002</v>
       </c>
     </row>
-    <row r="586" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A586">
         <v>149990511430</v>
       </c>
@@ -20654,7 +20638,7 @@
         <v>15837.01</v>
       </c>
     </row>
-    <row r="587" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A587">
         <v>151627911383</v>
       </c>
@@ -20686,7 +20670,7 @@
         <v>69300</v>
       </c>
     </row>
-    <row r="588" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A588">
         <v>151146111369</v>
       </c>
@@ -20718,7 +20702,7 @@
         <v>47535.009999999995</v>
       </c>
     </row>
-    <row r="589" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A589">
         <v>151447211376</v>
       </c>
@@ -20750,7 +20734,7 @@
         <v>59000</v>
       </c>
     </row>
-    <row r="590" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A590">
         <v>151621611382</v>
       </c>
@@ -20782,7 +20766,7 @@
         <v>8203.5159999999996</v>
       </c>
     </row>
-    <row r="591" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A591">
         <v>151649711433</v>
       </c>
@@ -20814,7 +20798,7 @@
         <v>2354.0079999999998</v>
       </c>
     </row>
-    <row r="592" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A592">
         <v>152003711407</v>
       </c>
@@ -20846,7 +20830,7 @@
         <v>6193.02</v>
       </c>
     </row>
-    <row r="593" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A593">
         <v>151034111364</v>
       </c>
@@ -20878,7 +20862,7 @@
         <v>129410.853</v>
       </c>
     </row>
-    <row r="594" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A594">
         <v>151824011390</v>
       </c>
@@ -20910,7 +20894,7 @@
         <v>67200.712</v>
       </c>
     </row>
-    <row r="595" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A595">
         <v>150500311349</v>
       </c>
@@ -20942,7 +20926,7 @@
         <v>69300</v>
       </c>
     </row>
-    <row r="596" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A596">
         <v>151447611420</v>
       </c>
@@ -20974,7 +20958,7 @@
         <v>41656.620000000003</v>
       </c>
     </row>
-    <row r="597" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A597">
         <v>151958911401</v>
       </c>
@@ -21006,7 +20990,7 @@
         <v>20612.611000000001</v>
       </c>
     </row>
-    <row r="598" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A598">
         <v>150479811345</v>
       </c>
@@ -21038,7 +21022,7 @@
         <v>73060.421000000002</v>
       </c>
     </row>
-    <row r="599" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A599">
         <v>149971211333</v>
       </c>
@@ -21070,7 +21054,7 @@
         <v>49247.68</v>
       </c>
     </row>
-    <row r="600" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A600">
         <v>152904111428</v>
       </c>
@@ -21102,7 +21086,7 @@
         <v>3545.4830000000002</v>
       </c>
     </row>
-    <row r="601" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A601">
         <v>149060911291</v>
       </c>
@@ -21134,7 +21118,7 @@
         <v>66137.16</v>
       </c>
     </row>
-    <row r="602" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A602">
         <v>151897611393</v>
       </c>
@@ -21166,7 +21150,7 @@
         <v>6512.87</v>
       </c>
     </row>
-    <row r="603" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A603">
         <v>152715111427</v>
       </c>
@@ -21198,7 +21182,7 @@
         <v>15242.255999999999</v>
       </c>
     </row>
-    <row r="604" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A604">
         <v>152632611415</v>
       </c>
@@ -21230,7 +21214,7 @@
         <v>28732.772000000001</v>
       </c>
     </row>
-    <row r="605" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A605">
         <v>150627311354</v>
       </c>
@@ -21262,7 +21246,7 @@
         <v>70488.423999999999</v>
       </c>
     </row>
-    <row r="606" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A606">
         <v>153266011436</v>
       </c>
@@ -21294,7 +21278,7 @@
         <v>15346.852000000001</v>
       </c>
     </row>
-    <row r="607" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A607">
         <v>152024411409</v>
       </c>
@@ -21326,7 +21310,7 @@
         <v>17352.917000000001</v>
       </c>
     </row>
-    <row r="608" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A608">
         <v>151440811379</v>
       </c>
@@ -21358,7 +21342,7 @@
         <v>70220</v>
       </c>
     </row>
-    <row r="609" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A609">
         <v>151967511405</v>
       </c>
@@ -21390,7 +21374,7 @@
         <v>54268.264999999999</v>
       </c>
     </row>
-    <row r="610" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A610">
         <v>151510311380</v>
       </c>
@@ -21422,7 +21406,7 @@
         <v>69100</v>
       </c>
     </row>
-    <row r="611" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A611">
         <v>153226311434</v>
       </c>
@@ -21454,7 +21438,7 @@
         <v>16575.190999999999</v>
       </c>
     </row>
-    <row r="612" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A612">
         <v>153412011441</v>
       </c>
@@ -21486,7 +21470,7 @@
         <v>3296.9650000000001</v>
       </c>
     </row>
-    <row r="613" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A613">
         <v>151901811394</v>
       </c>
@@ -21518,7 +21502,7 @@
         <v>69300</v>
       </c>
     </row>
-    <row r="614" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A614">
         <v>151959011402</v>
       </c>
@@ -21550,7 +21534,7 @@
         <v>6360.5860000000002</v>
       </c>
     </row>
-    <row r="615" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A615">
         <v>152668211418</v>
       </c>
@@ -21582,7 +21566,7 @@
         <v>70005.581999999995</v>
       </c>
     </row>
-    <row r="616" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A616">
         <v>152619411413</v>
       </c>
@@ -21614,7 +21598,7 @@
         <v>73191.817999999999</v>
       </c>
     </row>
-    <row r="617" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A617">
         <v>151967111404</v>
       </c>
@@ -21646,7 +21630,7 @@
         <v>20745.98</v>
       </c>
     </row>
-    <row r="618" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A618">
         <v>151953411400</v>
       </c>
@@ -21678,7 +21662,7 @@
         <v>16553.491999999998</v>
       </c>
     </row>
-    <row r="619" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A619">
         <v>153358011438</v>
       </c>
@@ -21710,7 +21694,7 @@
         <v>6512.625</v>
       </c>
     </row>
-    <row r="620" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A620">
         <v>151882311392</v>
       </c>
@@ -21742,7 +21726,7 @@
         <v>5499.56</v>
       </c>
     </row>
-    <row r="621" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A621">
         <v>152005611408</v>
       </c>
@@ -21774,7 +21758,7 @@
         <v>31135.091</v>
       </c>
     </row>
-    <row r="622" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A622">
         <v>152617411412</v>
       </c>
@@ -21806,7 +21790,7 @@
         <v>52250</v>
       </c>
     </row>
-    <row r="623" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A623">
         <v>148032711259</v>
       </c>
@@ -21838,7 +21822,7 @@
         <v>20014.07</v>
       </c>
     </row>
-    <row r="624" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A624">
         <v>151602411381</v>
       </c>
@@ -21870,7 +21854,7 @@
         <v>71420</v>
       </c>
     </row>
-    <row r="625" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A625">
         <v>152471211411</v>
       </c>
@@ -21902,7 +21886,7 @@
         <v>71500</v>
       </c>
     </row>
-    <row r="626" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A626">
         <v>153412811442</v>
       </c>
@@ -21934,7 +21918,7 @@
         <v>4946.6629999999996</v>
       </c>
     </row>
-    <row r="627" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A627">
         <v>153227211435</v>
       </c>
@@ -21966,7 +21950,7 @@
         <v>24855.142</v>
       </c>
     </row>
-    <row r="628" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A628">
         <v>151910111395</v>
       </c>
@@ -21998,7 +21982,7 @@
         <v>20922.22</v>
       </c>
     </row>
-    <row r="629" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A629">
         <v>152790411423</v>
       </c>
@@ -22030,7 +22014,7 @@
         <v>22400</v>
       </c>
     </row>
-    <row r="630" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A630">
         <v>152000711406</v>
       </c>
@@ -22062,7 +22046,7 @@
         <v>72999</v>
       </c>
     </row>
-    <row r="631" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A631">
         <v>152172511410</v>
       </c>
@@ -22094,7 +22078,7 @@
         <v>20087.046000000002</v>
       </c>
     </row>
-    <row r="632" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A632">
         <v>150726011359</v>
       </c>
@@ -22126,7 +22110,7 @@
         <v>5565.37</v>
       </c>
     </row>
-    <row r="633" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A633">
         <v>152630911414</v>
       </c>
@@ -22158,7 +22142,7 @@
         <v>10447.116</v>
       </c>
     </row>
-    <row r="634" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A634">
         <v>153372211439</v>
       </c>
@@ -22190,7 +22174,7 @@
         <v>72108.966</v>
       </c>
     </row>
-    <row r="635" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A635">
         <v>151966111403</v>
       </c>
@@ -22222,7 +22206,7 @@
         <v>70500</v>
       </c>
     </row>
-    <row r="636" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A636">
         <v>153736811454</v>
       </c>
@@ -22254,7 +22238,7 @@
         <v>3502.12</v>
       </c>
     </row>
-    <row r="637" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A637">
         <v>152770211421</v>
       </c>
@@ -22286,7 +22270,7 @@
         <v>32827.54</v>
       </c>
     </row>
-    <row r="638" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A638">
         <v>153670611450</v>
       </c>
@@ -22318,7 +22302,7 @@
         <v>30100</v>
       </c>
     </row>
-    <row r="639" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A639">
         <v>152781411422</v>
       </c>
@@ -22350,7 +22334,7 @@
         <v>21275.182000000001</v>
       </c>
     </row>
-    <row r="640" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A640">
         <v>152668911419</v>
       </c>
@@ -22382,7 +22366,7 @@
         <v>61079.156999999999</v>
       </c>
     </row>
-    <row r="641" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A641">
         <v>154172911463</v>
       </c>
@@ -22414,7 +22398,7 @@
         <v>13068.731</v>
       </c>
     </row>
-    <row r="642" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A642">
         <v>154241311469</v>
       </c>
@@ -22446,7 +22430,7 @@
         <v>10097.696</v>
       </c>
     </row>
-    <row r="643" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A643">
         <v>150415211342</v>
       </c>
@@ -22478,7 +22462,7 @@
         <v>36251.46</v>
       </c>
     </row>
-    <row r="644" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A644">
         <v>153398411440</v>
       </c>
@@ -22510,7 +22494,7 @@
         <v>70903.331000000006</v>
       </c>
     </row>
-    <row r="645" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A645">
         <v>153760111455</v>
       </c>
@@ -22542,7 +22526,7 @@
         <v>70257.672000000006</v>
       </c>
     </row>
-    <row r="646" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A646">
         <v>153634611448</v>
       </c>
@@ -22574,7 +22558,7 @@
         <v>23352</v>
       </c>
     </row>
-    <row r="647" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A647">
         <v>154162011462</v>
       </c>
@@ -22606,7 +22590,7 @@
         <v>34301.879999999997</v>
       </c>
     </row>
-    <row r="648" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A648">
         <v>153640711449</v>
       </c>
@@ -22638,7 +22622,7 @@
         <v>18478.54</v>
       </c>
     </row>
-    <row r="649" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A649">
         <v>153733111452</v>
       </c>
@@ -22670,7 +22654,7 @@
         <v>32721</v>
       </c>
     </row>
-    <row r="650" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A650">
         <v>152668411417</v>
       </c>
@@ -22702,7 +22686,7 @@
         <v>70100.008000000002</v>
       </c>
     </row>
-    <row r="651" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A651">
         <v>154173611464</v>
       </c>
@@ -22734,7 +22718,7 @@
         <v>21328.709000000003</v>
       </c>
     </row>
-    <row r="652" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A652">
         <v>153011711431</v>
       </c>
@@ -22766,7 +22750,7 @@
         <v>76519.356</v>
       </c>
     </row>
-    <row r="653" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A653">
         <v>155045711486</v>
       </c>
@@ -22799,7 +22783,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J653" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:J653"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
